--- a/manuscript/SuppTables_S1234.xlsx
+++ b/manuscript/SuppTables_S1234.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassato/Documents/GitHub/AraAphidGWAS/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA86E83-2F65-7243-B073-16E179CB59F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E95B6-AA03-BE4C-8605-77565EF91345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>gwasID</t>
   </si>
@@ -219,19 +219,10 @@
     <t xml:space="preserve">Gene      </t>
   </si>
   <si>
-    <t>Chr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hit  </t>
   </si>
   <si>
     <t>Background (accession)</t>
-  </si>
-  <si>
-    <t>Stock Code</t>
-  </si>
-  <si>
-    <t>chr3</t>
   </si>
   <si>
     <t>Exon</t>
@@ -243,12 +234,6 @@
     <t>Intron</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SALK T-DNA HM</t>
-  </si>
-  <si>
     <t>SALK_039481</t>
   </si>
   <si>
@@ -256,18 +241,6 @@
   </si>
   <si>
     <t>SALK_106226</t>
-  </si>
-  <si>
-    <t>Primer pair A</t>
-  </si>
-  <si>
-    <t>primer pair B</t>
-  </si>
-  <si>
-    <t>Forward primer</t>
-  </si>
-  <si>
-    <t>Reverse primer</t>
   </si>
   <si>
     <t>LP &amp; RP No.</t>
@@ -288,15 +261,6 @@
     <t>5789/5788</t>
   </si>
   <si>
-    <t>438 bp</t>
-  </si>
-  <si>
-    <t>436 bp</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t># Red color indicates the line we used for the aphid experiment.</t>
   </si>
   <si>
@@ -308,12 +272,87 @@
   <si>
     <t># Primer information is available in Table S3</t>
   </si>
+  <si>
+    <t>GAAGGAGCCATTTTAGCC</t>
+  </si>
+  <si>
+    <t>CATCCATCAAAACACAGCTC</t>
+  </si>
+  <si>
+    <t># Primer sequence is available in Table S3</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t># Primer sets A-E correspond to those shown in Figure S2</t>
+  </si>
+  <si>
+    <t>Target gene</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>cDNA</t>
+  </si>
+  <si>
+    <t>genomic</t>
+  </si>
+  <si>
+    <t>fragment size</t>
+  </si>
+  <si>
+    <t>Primer IDs</t>
+  </si>
+  <si>
+    <t>541 (458)</t>
+  </si>
+  <si>
+    <t>499 (416)</t>
+  </si>
+  <si>
+    <t>519 (436)</t>
+  </si>
+  <si>
+    <t>521 (438)</t>
+  </si>
+  <si>
+    <t>NA*</t>
+  </si>
+  <si>
+    <t>(): size for a splice variant if it exists</t>
+  </si>
+  <si>
+    <t>*: genomic DNA cannot be amplified as the primers are designed for an exon junction</t>
+  </si>
+  <si>
+    <t>ETL1 (AT2G02090)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,26 +371,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,23 +406,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Courier"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -443,53 +449,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -499,107 +471,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27217C13-5C55-DD4B-803E-41070FBE2127}">
   <dimension ref="A1:C1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -18309,159 +18265,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>72</v>
+      <c r="A1" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>73</v>
+      <c r="A2" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>75</v>
+      <c r="A3" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="E5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2939</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2939</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2939</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2939</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="19">
-        <v>2939</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="19">
-        <v>2939</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="G8" s="13">
         <v>3260</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -18475,359 +18431,372 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="17">
         <v>2939</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="18">
         <f t="shared" ref="C2:C3" si="0">LEN(B2)</f>
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="17">
         <v>3260</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="17">
         <v>5752</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C28" si="1">IF(B4&lt;&gt;"",LEN(SUBSTITUTE(SUBSTITUTE(B4," ",""),"*","")),"")</f>
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="17">
         <v>5753</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="17">
         <v>5754</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="17">
         <v>5755</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="17">
         <v>5786</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="17">
         <v>5787</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="17">
         <v>5788</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="17">
         <v>5789</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="17">
         <v>5790</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="17">
         <v>5791</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="17">
         <v>5799</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="17">
         <v>5800</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="17">
         <v>5801</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="17">
         <v>5802</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="17">
         <v>5803</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="17">
         <v>5804</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="17">
         <v>6085</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="17">
         <v>6086</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="17">
         <v>6087</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="17">
         <v>6088</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="17">
         <v>6089</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="17">
         <v>6090</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="17">
         <v>6091</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="18">
         <f>IF(B25&lt;&gt;"",LEN(SUBSTITUTE(SUBSTITUTE(B25," ",""),"*","")),"")</f>
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="17">
         <v>6092</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="18">
         <f>IF(B26&lt;&gt;"",LEN(SUBSTITUTE(SUBSTITUTE(B26," ",""),"*","")),"")</f>
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="21">
         <v>6093</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="17">
+        <v>5994</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="18">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="20">
+        <v>6017</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18837,161 +18806,189 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B0759C-87F1-7443-8154-125F3CD3882F}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="4.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-    </row>
-    <row r="3" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="27"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="23" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="26">
+        <v>6088</v>
+      </c>
+      <c r="C5" s="26">
+        <v>6090</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1267</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="26">
+        <v>6088</v>
+      </c>
+      <c r="C6" s="26">
+        <v>6091</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1247</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="26">
+        <v>6089</v>
+      </c>
+      <c r="C7" s="26">
+        <v>6090</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1245</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="B8" s="26">
+        <v>6089</v>
+      </c>
+      <c r="C8" s="26">
+        <v>6091</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1225</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="24">
-        <v>6088</v>
-      </c>
-      <c r="J5" s="24">
-        <v>6091</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="24">
-        <v>6089</v>
-      </c>
-      <c r="M5" s="24">
-        <v>6090</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="28">
+        <v>5994</v>
+      </c>
+      <c r="C9" s="28">
+        <v>6017</v>
+      </c>
+      <c r="D9" s="28">
+        <v>363</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="I3:K3"/>
+  <mergeCells count="2">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manuscript/SuppTables_S1234.xlsx
+++ b/manuscript/SuppTables_S1234.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassato/Documents/GitHub/AraAphidGWAS/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E95B6-AA03-BE4C-8605-77565EF91345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F36F1-572F-B746-B967-0FA12989F6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
+    <workbookView xWindow="-38060" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="1" r:id="rId1"/>
@@ -342,10 +342,10 @@
     <t>(): size for a splice variant if it exists</t>
   </si>
   <si>
-    <t>*: genomic DNA cannot be amplified as the primers are designed for an exon junction</t>
+    <t>ETL1 (AT2G02090)</t>
   </si>
   <si>
-    <t>ETL1 (AT2G02090)</t>
+    <t>*: genomic DNA cannot be amplified as the forward primer is designed for an exon junction</t>
   </si>
 </sst>
 </file>
@@ -18808,8 +18808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B0759C-87F1-7443-8154-125F3CD3882F}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18970,7 +18970,7 @@
         <v>85</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -18980,7 +18980,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>

--- a/manuscript/SuppTables_S1234.xlsx
+++ b/manuscript/SuppTables_S1234.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassato/Documents/GitHub/AraAphidGWAS/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F5398-5A37-834A-8941-F9B4B0AE1679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92457697-1605-F74A-9A76-A95DBA643B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38060" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>gwasID</t>
   </si>
@@ -372,6 +372,15 @@
   <si>
     <t>Without offset</t>
   </si>
+  <si>
+    <t>F-statistic and its p-value are shown for the effects of the mutant or wild type on the number of aphids, where df1 = 1 and df2 = 9 for the F-test.</t>
+  </si>
+  <si>
+    <t>The results at 7, 10, and 14 days after the release of aphids are shown without any offset terms, with initial plant size offset, or with flowering time offset.</t>
+  </si>
+  <si>
+    <t>Table SX. Nested Poisson GLMM comparing the number of aphids between the mutant and wild type plants.</t>
+  </si>
 </sst>
 </file>
 
@@ -568,19 +577,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23606,14 +23615,14 @@
       <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="25" t="s">
         <v>74</v>
       </c>
@@ -23757,126 +23766,141 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E0FD47-6708-3649-80ED-91B76C67BDA8}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="6" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>19.3</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>1.7373849999999999E-3</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>6.9116999999999997</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>2.7402920000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>40.78</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>1.2736679999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>56.957000000000001</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C7" s="27">
         <v>3.5155479999999998E-5</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>26.997</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>5.6719229999999999E-4</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>102.54</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G7" s="27">
         <v>3.2229760000000001E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>131.27000000000001</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C8" s="29">
         <v>1.14101E-6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>56.287999999999997</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E8" s="29">
         <v>3.6829019999999997E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>248.07</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G8" s="29">
         <v>7.378711E-8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manuscript/SuppTables_S1234.xlsx
+++ b/manuscript/SuppTables_S1234.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassato/Documents/GitHub/AraAphidGWAS/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92457697-1605-F74A-9A76-A95DBA643B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747ECA02-38D9-FC44-8444-944831CE0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{1DD2B6DA-FD47-A647-9431-CDBFD348A53C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TableS2" sheetId="2" r:id="rId2"/>
     <sheet name="TableS3" sheetId="3" r:id="rId3"/>
     <sheet name="TableS4" sheetId="4" r:id="rId4"/>
-    <sheet name="TableSX" sheetId="5" r:id="rId5"/>
+    <sheet name="TableS5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -379,7 +379,7 @@
     <t>The results at 7, 10, and 14 days after the release of aphids are shown without any offset terms, with initial plant size offset, or with flowering time offset.</t>
   </si>
   <si>
-    <t>Table SX. Nested Poisson GLMM comparing the number of aphids between the mutant and wild type plants.</t>
+    <t>Table S5. Analysis of deviance for GLMMs comparing the number of aphids between the mutant and wild type plants.</t>
   </si>
 </sst>
 </file>
@@ -23769,7 +23769,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
